--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="644">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T15:55:29-06:00</t>
+    <t>2023-01-04T18:59:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -849,6 +849,9 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Patient.name</t>
@@ -5525,15 +5528,15 @@
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5556,19 +5559,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5617,7 +5620,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5632,30 +5635,30 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5770,10 +5773,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5890,10 +5893,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5919,16 +5922,16 @@
         <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5956,10 +5959,10 @@
         <v>208</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5977,7 +5980,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5992,7 +5995,7 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -6001,7 +6004,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6012,10 +6015,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6041,16 +6044,16 @@
         <v>193</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6099,7 +6102,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6114,7 +6117,7 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -6123,7 +6126,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6134,14 +6137,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6163,13 +6166,13 @@
         <v>193</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6219,7 +6222,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6228,13 +6231,13 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6243,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6254,14 +6257,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6283,13 +6286,13 @@
         <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6339,7 +6342,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6348,13 +6351,13 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
@@ -6363,7 +6366,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6374,10 +6377,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6403,10 +6406,10 @@
         <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6457,7 +6460,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6472,7 +6475,7 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
@@ -6481,7 +6484,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6492,10 +6495,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6521,10 +6524,10 @@
         <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6575,7 +6578,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6590,7 +6593,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
@@ -6599,7 +6602,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6610,10 +6613,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6639,14 +6642,14 @@
         <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6695,7 +6698,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6710,7 +6713,7 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
@@ -6719,7 +6722,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6730,10 +6733,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6756,19 +6759,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6817,7 +6820,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6832,30 +6835,30 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6970,10 +6973,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7090,10 +7093,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7119,10 +7122,10 @@
         <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7152,10 +7155,10 @@
         <v>208</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7173,7 +7176,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7182,13 +7185,13 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7197,7 +7200,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7208,10 +7211,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7237,16 +7240,16 @@
         <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7295,7 +7298,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7310,7 +7313,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7319,7 +7322,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7330,10 +7333,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7359,16 +7362,16 @@
         <v>109</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7397,7 +7400,7 @@
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7415,7 +7418,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7430,7 +7433,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7439,7 +7442,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7450,10 +7453,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7476,16 +7479,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7535,7 +7538,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7570,10 +7573,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7599,10 +7602,10 @@
         <v>242</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7653,7 +7656,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7668,7 +7671,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7688,10 +7691,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7717,16 +7720,16 @@
         <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7755,7 +7758,7 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7773,7 +7776,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7791,27 +7794,27 @@
         <v>159</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7834,19 +7837,19 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7895,7 +7898,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7910,30 +7913,30 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7956,19 +7959,19 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8017,7 +8020,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8032,7 +8035,7 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>197</v>
@@ -8041,7 +8044,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8052,10 +8055,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8078,19 +8081,19 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8139,7 +8142,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8154,30 +8157,30 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8292,10 +8295,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8412,10 +8415,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8441,16 +8444,16 @@
         <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8463,7 +8466,7 @@
         <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>82</v>
@@ -8478,10 +8481,10 @@
         <v>208</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8499,7 +8502,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8514,7 +8517,7 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
@@ -8523,7 +8526,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8534,10 +8537,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8563,13 +8566,13 @@
         <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8583,7 +8586,7 @@
         <v>82</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>82</v>
@@ -8598,10 +8601,10 @@
         <v>208</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8619,7 +8622,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8634,7 +8637,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
@@ -8643,7 +8646,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8654,10 +8657,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8683,16 +8686,16 @@
         <v>193</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8705,7 +8708,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -8741,7 +8744,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8756,7 +8759,7 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8765,7 +8768,7 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8776,10 +8779,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8805,10 +8808,10 @@
         <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8823,7 +8826,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -8859,7 +8862,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8874,7 +8877,7 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8883,7 +8886,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8894,14 +8897,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8923,10 +8926,10 @@
         <v>193</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8941,7 +8944,7 @@
         <v>82</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>82</v>
@@ -8977,7 +8980,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8992,7 +8995,7 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -9001,7 +9004,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9012,14 +9015,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9041,13 +9044,13 @@
         <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9061,7 +9064,7 @@
         <v>82</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>82</v>
@@ -9097,7 +9100,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9112,7 +9115,7 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
@@ -9121,7 +9124,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9132,14 +9135,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9161,10 +9164,10 @@
         <v>193</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9194,10 +9197,10 @@
         <v>219</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9215,7 +9218,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9230,7 +9233,7 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>82</v>
@@ -9239,7 +9242,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9250,14 +9253,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9279,10 +9282,10 @@
         <v>193</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9297,7 +9300,7 @@
         <v>82</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>82</v>
@@ -9333,7 +9336,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9348,7 +9351,7 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
@@ -9357,7 +9360,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9368,10 +9371,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9397,13 +9400,13 @@
         <v>193</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9453,7 +9456,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9468,7 +9471,7 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
@@ -9477,7 +9480,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9488,10 +9491,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9517,14 +9520,14 @@
         <v>242</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9537,7 +9540,7 @@
         <v>82</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>82</v>
@@ -9573,7 +9576,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9588,7 +9591,7 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9597,7 +9600,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9608,10 +9611,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9637,14 +9640,14 @@
         <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9672,10 +9675,10 @@
         <v>219</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9693,7 +9696,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9708,30 +9711,30 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9754,19 +9757,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9815,7 +9818,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9830,7 +9833,7 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>197</v>
@@ -9839,7 +9842,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9850,10 +9853,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9876,19 +9879,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9937,7 +9940,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9952,7 +9955,7 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>197</v>
@@ -9961,7 +9964,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9972,10 +9975,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9998,19 +10001,19 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10059,7 +10062,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10071,10 +10074,10 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>197</v>
@@ -10089,15 +10092,15 @@
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10212,10 +10215,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10332,14 +10335,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10361,10 +10364,10 @@
         <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>179</v>
@@ -10419,7 +10422,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10454,10 +10457,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10483,14 +10486,14 @@
         <v>214</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10518,10 +10521,10 @@
         <v>219</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10539,7 +10542,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10554,7 +10557,7 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>197</v>
@@ -10563,7 +10566,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10574,10 +10577,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10600,17 +10603,17 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10659,7 +10662,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10674,7 +10677,7 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>197</v>
@@ -10683,7 +10686,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10694,10 +10697,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10720,19 +10723,19 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10781,7 +10784,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10796,7 +10799,7 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>197</v>
@@ -10805,7 +10808,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10816,10 +10819,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10842,17 +10845,17 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10901,7 +10904,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10916,7 +10919,7 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>197</v>
@@ -10925,7 +10928,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10936,10 +10939,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10965,14 +10968,14 @@
         <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11000,10 +11003,10 @@
         <v>208</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11021,7 +11024,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11045,7 +11048,7 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11056,10 +11059,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11085,14 +11088,14 @@
         <v>249</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11141,7 +11144,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11150,13 +11153,13 @@
         <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>197</v>
@@ -11165,7 +11168,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11176,10 +11179,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11205,10 +11208,10 @@
         <v>242</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11259,7 +11262,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11274,7 +11277,7 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>197</v>
@@ -11294,10 +11297,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11320,19 +11323,19 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11381,7 +11384,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11396,10 +11399,10 @@
         <v>82</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
@@ -11416,10 +11419,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11534,10 +11537,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11654,14 +11657,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11683,10 +11686,10 @@
         <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>179</v>
@@ -11741,7 +11744,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11776,10 +11779,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11805,16 +11808,16 @@
         <v>214</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11843,7 +11846,7 @@
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11861,7 +11864,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>89</v>
@@ -11876,16 +11879,16 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11896,10 +11899,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11925,16 +11928,16 @@
         <v>257</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11983,7 +11986,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11998,16 +12001,16 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12018,14 +12021,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12044,16 +12047,16 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12103,7 +12106,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12118,7 +12121,7 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>197</v>
@@ -12127,7 +12130,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12138,10 +12141,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12167,16 +12170,16 @@
         <v>249</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12225,7 +12228,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12240,10 +12243,10 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>82</v>
@@ -12255,15 +12258,15 @@
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12286,19 +12289,19 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12347,7 +12350,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12362,7 +12365,7 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>197</v>
@@ -12382,10 +12385,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12500,10 +12503,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12620,14 +12623,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12649,10 +12652,10 @@
         <v>134</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>179</v>
@@ -12707,7 +12710,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12742,10 +12745,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12768,16 +12771,16 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12827,7 +12830,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>89</v>
@@ -12851,7 +12854,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12862,10 +12865,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12891,10 +12894,10 @@
         <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12924,10 +12927,10 @@
         <v>208</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12945,7 +12948,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>89</v>
@@ -12960,7 +12963,7 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>197</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-beta</t>
+    <t>0.1.1-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-04T18:59:45-06:00</t>
+    <t>2023-01-05T09:18:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -522,16 +522,6 @@
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
-    <t>Patient.extension:genderIdentity</t>
-  </si>
-  <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity}
-</t>
-  </si>
-  <si>
     <t>Patient.extension:religion</t>
   </si>
   <si>
@@ -873,6 +863,10 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-8:Either Patient.name.given and/or Patient.name.family SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -964,7 +958,7 @@
     <t>HumanName.family</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-6
+    <t xml:space="preserve">us-core-8
 </t>
   </si>
   <si>
@@ -2347,7 +2341,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP88"/>
+  <dimension ref="A1:AP87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2358,7 +2352,7 @@
   <cols>
     <col min="1" max="1" width="38.84375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.27734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2366,7 +2360,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2563,9 +2557,7 @@
       <c r="M2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>84</v>
-      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>82</v>
@@ -3876,10 +3868,10 @@
         <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3939,7 +3931,7 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>140</v>
@@ -3960,18 +3952,18 @@
         <v>82</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>82</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>82</v>
@@ -3993,13 +3985,13 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4080,49 +4072,51 @@
         <v>82</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
       </c>
@@ -4170,7 +4164,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4185,7 +4179,7 @@
         <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>82</v>
@@ -4200,50 +4194,48 @@
         <v>82</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4292,7 +4284,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4304,33 +4296,33 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4338,33 +4330,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H17" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -4412,56 +4402,56 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4473,15 +4463,17 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4518,34 +4510,34 @@
         <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
@@ -4565,44 +4557,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4626,46 +4620,46 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
@@ -4674,7 +4668,7 @@
         <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4685,10 +4679,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4705,25 +4699,25 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4748,13 +4742,13 @@
         <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>82</v>
@@ -4772,7 +4766,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4787,7 +4781,7 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
@@ -4796,7 +4790,7 @@
         <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4807,10 +4801,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4818,13 +4812,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
@@ -4833,19 +4827,19 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4858,7 +4852,7 @@
         <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>82</v>
@@ -4870,13 +4864,13 @@
         <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>82</v>
@@ -4894,7 +4888,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4909,7 +4903,7 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
@@ -4918,7 +4912,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4929,10 +4923,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4955,20 +4949,18 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4980,7 +4972,7 @@
         <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>82</v>
@@ -5016,7 +5008,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5031,7 +5023,7 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -5040,7 +5032,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5051,10 +5043,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5062,13 +5054,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5077,17 +5069,15 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5100,7 +5090,7 @@
         <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>82</v>
@@ -5136,7 +5126,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5151,7 +5141,7 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
@@ -5160,7 +5150,7 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5171,10 +5161,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5197,15 +5187,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5254,7 +5246,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5269,7 +5261,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
@@ -5278,7 +5270,7 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5289,10 +5281,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5309,28 +5301,32 @@
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="R25" t="s" s="2">
         <v>82</v>
       </c>
@@ -5389,30 +5385,30 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5420,41 +5416,39 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q26" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5498,45 +5492,45 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5544,35 +5538,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H27" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5620,56 +5610,56 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>275</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5681,15 +5671,17 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5726,34 +5718,34 @@
         <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5773,44 +5765,46 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5834,46 +5828,46 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5882,7 +5876,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5893,10 +5887,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5913,25 +5907,25 @@
         <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5956,13 +5950,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5980,7 +5974,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5995,7 +5989,7 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -6004,7 +5998,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6015,14 +6009,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6032,7 +6026,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6041,20 +6035,18 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -6102,7 +6094,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6111,13 +6103,13 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -6126,7 +6118,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6137,21 +6129,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>90</v>
@@ -6163,16 +6155,16 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6222,22 +6214,22 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6246,7 +6238,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6257,14 +6249,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6274,7 +6266,7 @@
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
@@ -6283,17 +6275,15 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6342,7 +6332,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6351,13 +6341,13 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
@@ -6366,7 +6356,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6377,10 +6367,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6403,13 +6393,13 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6460,7 +6450,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6475,7 +6465,7 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
@@ -6484,7 +6474,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6495,10 +6485,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6509,7 +6499,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6521,16 +6511,18 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6578,13 +6570,13 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
@@ -6593,7 +6585,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
@@ -6602,7 +6594,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6613,10 +6605,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6627,7 +6619,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6639,17 +6631,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6698,45 +6692,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>82</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6747,7 +6741,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6756,23 +6750,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6820,13 +6810,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6835,41 +6825,41 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>338</v>
+        <v>194</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6881,15 +6871,17 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6926,34 +6918,34 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6973,43 +6965,41 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7034,46 +7024,46 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -7082,7 +7072,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7093,10 +7083,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7119,16 +7109,20 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7152,13 +7146,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7176,7 +7170,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7185,13 +7179,13 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7200,7 +7194,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7211,10 +7205,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7222,7 +7216,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -7231,25 +7225,25 @@
         <v>90</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7274,13 +7268,11 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7298,7 +7290,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7313,7 +7305,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>359</v>
+        <v>284</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7322,7 +7314,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7333,10 +7325,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7350,29 +7342,27 @@
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7396,11 +7386,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7418,7 +7410,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7433,7 +7425,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7442,7 +7434,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>368</v>
+        <v>194</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7453,10 +7445,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7479,17 +7471,15 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7538,7 +7528,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7553,7 +7543,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7562,7 +7552,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7573,10 +7563,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7584,13 +7574,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7599,16 +7589,20 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7632,13 +7626,11 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7656,7 +7648,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7671,30 +7663,30 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7702,7 +7694,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -7717,19 +7709,19 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>109</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7754,11 +7746,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7776,7 +7770,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7791,30 +7785,30 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7828,28 +7822,28 @@
         <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7898,7 +7892,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7913,30 +7907,30 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>395</v>
+        <v>194</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7947,31 +7941,31 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8020,13 +8014,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -8035,30 +8029,30 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>197</v>
+        <v>412</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8069,32 +8063,28 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>408</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>191</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -8142,56 +8132,56 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>407</v>
+        <v>193</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>413</v>
+        <v>194</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8203,15 +8193,17 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8248,34 +8240,34 @@
         <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
@@ -8295,44 +8287,46 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>199</v>
+        <v>418</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>200</v>
+        <v>419</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8344,7 +8338,7 @@
         <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>82</v>
@@ -8356,46 +8350,46 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>202</v>
+        <v>425</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
@@ -8404,7 +8398,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8415,10 +8409,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8435,7 +8429,7 @@
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>90</v>
@@ -8444,17 +8438,15 @@
         <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8466,7 +8458,7 @@
         <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>82</v>
@@ -8478,13 +8470,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8502,7 +8494,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8517,7 +8509,7 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
@@ -8526,7 +8518,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8537,10 +8529,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8563,18 +8555,20 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8586,7 +8580,7 @@
         <v>82</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>82</v>
@@ -8598,13 +8592,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8622,7 +8616,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8637,7 +8631,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
@@ -8646,7 +8640,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8657,10 +8651,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8671,10 +8665,10 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8683,20 +8677,16 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8708,7 +8698,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -8744,13 +8734,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
@@ -8759,7 +8749,7 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8768,7 +8758,7 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8779,21 +8769,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>90</v>
@@ -8805,13 +8795,13 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8826,7 +8816,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -8862,13 +8852,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -8877,7 +8867,7 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8886,7 +8876,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8897,14 +8887,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8914,7 +8904,7 @@
         <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -8923,15 +8913,17 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8944,7 +8936,7 @@
         <v>82</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>82</v>
@@ -8980,7 +8972,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8995,7 +8987,7 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -9004,7 +8996,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9015,14 +9007,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9032,7 +9024,7 @@
         <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
@@ -9041,17 +9033,15 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9064,7 +9054,7 @@
         <v>82</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>82</v>
@@ -9076,13 +9066,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9100,7 +9090,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9115,7 +9105,7 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
@@ -9124,7 +9114,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9135,14 +9125,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9161,13 +9151,13 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9182,7 +9172,7 @@
         <v>82</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>82</v>
@@ -9194,13 +9184,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9218,7 +9208,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9233,7 +9223,7 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>82</v>
@@ -9242,7 +9232,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9253,14 +9243,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9270,7 +9260,7 @@
         <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9279,15 +9269,17 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9300,7 +9292,7 @@
         <v>82</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>82</v>
@@ -9336,7 +9328,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9351,7 +9343,7 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
@@ -9360,7 +9352,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9371,10 +9363,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9388,7 +9380,7 @@
         <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9397,18 +9389,18 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9420,7 +9412,7 @@
         <v>82</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>82</v>
@@ -9456,7 +9448,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9471,7 +9463,7 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>491</v>
+        <v>328</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
@@ -9480,7 +9472,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9491,10 +9483,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9508,26 +9500,26 @@
         <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9540,7 +9532,7 @@
         <v>82</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>82</v>
@@ -9552,13 +9544,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9591,30 +9583,30 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>330</v>
+        <v>504</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9637,17 +9629,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>509</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9672,13 +9666,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9696,7 +9690,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9711,30 +9705,30 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>507</v>
+        <v>194</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>509</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9745,7 +9739,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9757,19 +9751,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9818,13 +9812,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
@@ -9833,16 +9827,16 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9853,10 +9847,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9879,19 +9873,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9940,7 +9934,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9952,33 +9946,33 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>530</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9989,7 +9983,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -10001,20 +9995,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>527</v>
+        <v>190</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>528</v>
+        <v>191</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10062,25 +10052,25 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>526</v>
+        <v>193</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>533</v>
+        <v>194</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>82</v>
@@ -10092,26 +10082,26 @@
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10123,15 +10113,17 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10180,22 +10172,22 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10215,14 +10207,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>176</v>
+        <v>536</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10235,24 +10227,26 @@
         <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>199</v>
+        <v>537</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>200</v>
+        <v>538</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10300,7 +10294,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>202</v>
+        <v>539</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10315,7 +10309,7 @@
         <v>140</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10335,14 +10329,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10355,25 +10349,23 @@
         <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10398,13 +10390,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10422,7 +10414,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10434,19 +10426,19 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>132</v>
+        <v>546</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10457,10 +10449,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10471,7 +10463,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10483,17 +10475,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10518,13 +10510,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10542,13 +10534,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10557,16 +10549,16 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>548</v>
+        <v>270</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10577,10 +10569,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10591,7 +10583,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10603,17 +10595,19 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>553</v>
+        <v>335</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10662,13 +10656,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10677,16 +10671,16 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10697,10 +10691,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10711,7 +10705,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10723,19 +10717,17 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>337</v>
+        <v>561</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10784,13 +10776,13 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
@@ -10799,16 +10791,16 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>338</v>
+        <v>411</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10819,10 +10811,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10845,17 +10837,17 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>561</v>
+        <v>378</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10880,13 +10872,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10904,7 +10896,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10919,16 +10911,16 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>413</v>
+        <v>159</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10939,10 +10931,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10965,17 +10957,17 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11000,31 +10992,31 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11033,22 +11025,22 @@
         <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>82</v>
+        <v>573</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>159</v>
+        <v>574</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11059,10 +11051,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11085,18 +11077,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>574</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11144,7 +11134,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11153,22 +11143,22 @@
         <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11179,10 +11169,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11193,7 +11183,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11205,16 +11195,20 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>242</v>
+        <v>525</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11262,25 +11256,25 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>197</v>
+        <v>586</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>82</v>
@@ -11297,10 +11291,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11311,7 +11305,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11323,20 +11317,16 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>527</v>
+        <v>190</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>583</v>
+        <v>191</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11384,13 +11374,13 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>582</v>
+        <v>193</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
@@ -11399,10 +11389,10 @@
         <v>82</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>587</v>
+        <v>194</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
@@ -11419,21 +11409,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11445,15 +11435,17 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11502,22 +11494,22 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
@@ -11537,14 +11529,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>176</v>
+        <v>536</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11557,24 +11549,26 @@
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>199</v>
+        <v>537</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>200</v>
+        <v>538</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11622,7 +11616,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>202</v>
+        <v>539</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11637,7 +11631,7 @@
         <v>140</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>82</v>
@@ -11657,45 +11651,45 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>179</v>
+        <v>593</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>180</v>
+        <v>594</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11720,13 +11714,11 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11744,31 +11736,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>132</v>
+        <v>596</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11779,10 +11771,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11790,13 +11782,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -11805,19 +11797,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11842,11 +11834,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11864,10 +11858,10 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>89</v>
@@ -11879,16 +11873,16 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11899,21 +11893,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>608</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11925,20 +11919,18 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>257</v>
+        <v>609</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11986,13 +11978,13 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
@@ -12001,16 +11993,16 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>607</v>
+        <v>194</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12021,21 +12013,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12044,21 +12036,23 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>611</v>
+        <v>246</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12106,13 +12100,13 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -12121,30 +12115,30 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>197</v>
+        <v>620</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>82</v>
+        <v>621</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12155,31 +12149,31 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>249</v>
+        <v>525</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12228,13 +12222,13 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
@@ -12243,10 +12237,10 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>622</v>
+        <v>194</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>82</v>
@@ -12258,15 +12252,15 @@
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>623</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12277,32 +12271,28 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>527</v>
+        <v>190</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>625</v>
+        <v>191</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12350,25 +12340,25 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>624</v>
+        <v>193</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>629</v>
+        <v>194</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>82</v>
@@ -12385,21 +12375,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12411,15 +12401,17 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12468,22 +12460,22 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12503,14 +12495,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>176</v>
+        <v>536</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12523,24 +12515,26 @@
         <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>199</v>
+        <v>537</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>200</v>
+        <v>538</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12588,7 +12582,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>202</v>
+        <v>539</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12603,7 +12597,7 @@
         <v>140</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>82</v>
@@ -12623,46 +12617,44 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>134</v>
+        <v>632</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>539</v>
+        <v>633</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12710,31 +12702,31 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12745,10 +12737,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12771,17 +12763,15 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>634</v>
+        <v>109</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12806,13 +12796,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>640</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12830,7 +12820,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>89</v>
@@ -12845,144 +12835,26 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>187</v>
+        <v>641</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>638</v>
+        <v>82</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP88" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP88">
+  <autoFilter ref="A1:AP87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12992,7 +12864,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1-beta</t>
+    <t>0.1.2-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T09:18:04-06:00</t>
+    <t>2023-01-10T07:11:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,7 +86,18 @@
   <si>
     <t>A profile on the Patient resource for MHV PHR exposing Patient using FHIR API.
 - based on US-Core for Patient
-- record the ICN value into the Patient.identifier</t>
+- record the ICN value into the Patient.identifier
+  - seems other ID values are possible too such as mpiPID, localPID, SSN.
+- some elements could be converted into `codes` but doing minimal translation. 
+- notes given example
+  - dropping age as not useful in persisted data, prefer dob
+  - dropping occupation - could be recorded as SDOH Observation
+  - dropping confidentiality flag - not sure the meaning - could be .meta.security
+  - dropping patientFlags - not sure the meaning
+  - dropping activeInsurance - could go into Account resource - could go in extension as text blob
+  - dropping currentMeansStatus
+  - dropping elegibilityCode
+Mapping to [VDIF PatientTO](StructureDefinition-VA.MHV.PHR.patient-mappings.html#mappings-for-vdif-to-mhv-phr-patientto)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -268,6 +279,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Information about an individual or animal receiving health care services</t>
@@ -841,7 +856,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>true</t>
+    <t>`true`</t>
   </si>
   <si>
     <t>Patient.name</t>
@@ -2549,13 +2564,13 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2621,10 +2636,10 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>82</v>
@@ -2636,15 +2651,15 @@
         <v>82</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2655,7 +2670,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2664,19 +2679,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2726,13 +2741,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2761,10 +2776,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2775,7 +2790,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2784,16 +2799,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2844,19 +2859,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2879,10 +2894,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2893,28 +2908,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2964,19 +2979,19 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
@@ -2999,10 +3014,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3013,7 +3028,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -3025,16 +3040,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3060,13 +3075,13 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>82</v>
@@ -3084,19 +3099,19 @@
         <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3119,21 +3134,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3145,16 +3160,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3204,22 +3219,22 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>82</v>
@@ -3239,14 +3254,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3265,16 +3280,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3324,7 +3339,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3339,7 +3354,7 @@
         <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>82</v>
@@ -3359,10 +3374,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3385,13 +3400,13 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3430,17 +3445,17 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3452,7 +3467,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3475,13 +3490,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>82</v>
@@ -3491,7 +3506,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>82</v>
@@ -3503,13 +3518,13 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3560,7 +3575,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3569,10 +3584,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3590,18 +3605,18 @@
         <v>82</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>82</v>
@@ -3611,7 +3626,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
@@ -3623,13 +3638,13 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3680,7 +3695,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3689,10 +3704,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3710,18 +3725,18 @@
         <v>82</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>82</v>
@@ -3731,7 +3746,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3743,16 +3758,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3802,7 +3817,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3811,13 +3826,13 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>82</v>
@@ -3837,13 +3852,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>82</v>
@@ -3853,7 +3868,7 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
@@ -3865,13 +3880,13 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3922,7 +3937,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3934,7 +3949,7 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3952,18 +3967,18 @@
         <v>82</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>82</v>
@@ -3973,7 +3988,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -3985,13 +4000,13 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4042,7 +4057,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -4054,7 +4069,7 @@
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4072,19 +4087,19 @@
         <v>82</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4097,25 +4112,25 @@
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -4164,7 +4179,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4176,10 +4191,10 @@
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>82</v>
@@ -4199,10 +4214,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4210,32 +4225,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4284,7 +4299,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4296,33 +4311,33 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4333,7 +4348,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
@@ -4345,13 +4360,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4402,13 +4417,13 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
@@ -4417,7 +4432,7 @@
         <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
@@ -4437,14 +4452,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4463,16 +4478,16 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4510,19 +4525,19 @@
         <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4534,10 +4549,10 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
@@ -4557,10 +4572,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4571,31 +4586,31 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4620,13 +4635,13 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4644,22 +4659,22 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
@@ -4668,7 +4683,7 @@
         <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4679,10 +4694,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4693,7 +4708,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4702,22 +4717,22 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4742,13 +4757,13 @@
         <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>82</v>
@@ -4766,22 +4781,22 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
@@ -4790,7 +4805,7 @@
         <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4801,10 +4816,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4812,34 +4827,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4852,7 +4867,7 @@
         <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>82</v>
@@ -4888,22 +4903,22 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
@@ -4912,7 +4927,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4923,10 +4938,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4934,31 +4949,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4972,7 +4987,7 @@
         <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>82</v>
@@ -5008,22 +5023,22 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -5032,7 +5047,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5043,10 +5058,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5057,7 +5072,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5066,16 +5081,16 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5126,22 +5141,22 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
@@ -5150,7 +5165,7 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5161,10 +5176,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5175,7 +5190,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -5184,19 +5199,19 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5246,22 +5261,22 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
@@ -5270,7 +5285,7 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5281,10 +5296,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5295,103 +5310,103 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
@@ -5400,15 +5415,15 @@
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5416,34 +5431,34 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5492,7 +5507,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5504,33 +5519,33 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5541,7 +5556,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5553,13 +5568,13 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5610,13 +5625,13 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
@@ -5625,7 +5640,7 @@
         <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5645,14 +5660,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5671,16 +5686,16 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5718,19 +5733,19 @@
         <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5742,10 +5757,10 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5765,10 +5780,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5779,31 +5794,31 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5828,13 +5843,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5852,22 +5867,22 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5876,7 +5891,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5887,10 +5902,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5901,7 +5916,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5910,22 +5925,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5974,22 +5989,22 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -5998,7 +6013,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6009,42 +6024,42 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6094,22 +6109,22 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -6118,7 +6133,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6129,14 +6144,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6146,25 +6161,25 @@
         <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6214,7 +6229,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6223,13 +6238,13 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6238,7 +6253,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6249,10 +6264,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6272,16 +6287,16 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6332,7 +6347,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6344,10 +6359,10 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
@@ -6356,7 +6371,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6367,10 +6382,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6390,16 +6405,16 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6450,7 +6465,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6462,10 +6477,10 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
@@ -6474,7 +6489,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6485,10 +6500,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6499,7 +6514,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6508,20 +6523,20 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6570,22 +6585,22 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
@@ -6594,7 +6609,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6605,10 +6620,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6628,22 +6643,22 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6692,7 +6707,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6707,30 +6722,30 @@
         <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6741,7 +6756,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6753,13 +6768,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6810,13 +6825,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6825,7 +6840,7 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
@@ -6845,14 +6860,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6871,16 +6886,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6918,19 +6933,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6942,10 +6957,10 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6965,10 +6980,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6976,28 +6991,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7024,13 +7039,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -7048,22 +7063,22 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -7072,7 +7087,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7083,10 +7098,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7094,34 +7109,34 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7170,22 +7185,22 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7194,7 +7209,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7205,10 +7220,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7219,31 +7234,31 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7268,11 +7283,11 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7290,22 +7305,22 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7314,7 +7329,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7325,10 +7340,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7339,7 +7354,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7348,19 +7363,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7410,22 +7425,22 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7434,7 +7449,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7445,10 +7460,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7459,7 +7474,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7468,16 +7483,16 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7528,22 +7543,22 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7552,7 +7567,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7563,10 +7578,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7574,34 +7589,34 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7626,11 +7641,11 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7648,45 +7663,45 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7697,31 +7712,31 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7770,45 +7785,45 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7819,31 +7834,31 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7892,31 +7907,31 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7927,10 +7942,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7944,28 +7959,28 @@
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8014,7 +8029,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8026,33 +8041,33 @@
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8063,7 +8078,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8075,13 +8090,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8132,13 +8147,13 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
@@ -8147,7 +8162,7 @@
         <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -8167,14 +8182,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8193,16 +8208,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8240,19 +8255,19 @@
         <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8264,10 +8279,10 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
@@ -8287,10 +8302,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8301,31 +8316,31 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8338,7 +8353,7 @@
         <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>82</v>
@@ -8350,13 +8365,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8374,22 +8389,22 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
@@ -8398,7 +8413,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8409,10 +8424,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8423,7 +8438,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8432,19 +8447,19 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8458,7 +8473,7 @@
         <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>82</v>
@@ -8470,13 +8485,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8494,22 +8509,22 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
@@ -8518,7 +8533,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8529,10 +8544,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8543,7 +8558,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8552,22 +8567,22 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8580,7 +8595,7 @@
         <v>82</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>82</v>
@@ -8616,22 +8631,22 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
@@ -8640,7 +8655,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8651,10 +8666,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8668,22 +8683,22 @@
         <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8698,7 +8713,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -8734,7 +8749,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8746,10 +8761,10 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8758,7 +8773,7 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8769,39 +8784,39 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8816,7 +8831,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -8852,22 +8867,22 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8876,7 +8891,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8887,21 +8902,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8910,19 +8925,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8936,7 +8951,7 @@
         <v>82</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>82</v>
@@ -8972,22 +8987,22 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -8996,7 +9011,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9007,39 +9022,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9066,13 +9081,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9090,22 +9105,22 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
@@ -9114,7 +9129,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9125,39 +9140,39 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9172,7 +9187,7 @@
         <v>82</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>82</v>
@@ -9208,22 +9223,22 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>82</v>
@@ -9232,7 +9247,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9243,10 +9258,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9257,7 +9272,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9266,19 +9281,19 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9328,22 +9343,22 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
@@ -9352,7 +9367,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9363,10 +9378,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9377,29 +9392,29 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9412,7 +9427,7 @@
         <v>82</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>82</v>
@@ -9448,22 +9463,22 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
@@ -9472,7 +9487,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9483,10 +9498,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9497,7 +9512,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9509,17 +9524,17 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9544,13 +9559,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9568,45 +9583,45 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9617,7 +9632,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9629,19 +9644,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9690,31 +9705,31 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9725,10 +9740,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9751,19 +9766,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9812,7 +9827,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9824,19 +9839,19 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9847,10 +9862,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9873,19 +9888,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9934,7 +9949,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9946,13 +9961,13 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
@@ -9964,15 +9979,15 @@
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9983,7 +9998,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9995,13 +10010,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10052,13 +10067,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
@@ -10067,7 +10082,7 @@
         <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -10087,14 +10102,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10113,16 +10128,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10172,7 +10187,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10184,10 +10199,10 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10207,14 +10222,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10227,25 +10242,25 @@
         <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10294,7 +10309,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10306,10 +10321,10 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10329,10 +10344,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10355,17 +10370,17 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10390,13 +10405,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10414,7 +10429,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10426,19 +10441,19 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10449,10 +10464,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10463,7 +10478,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10475,17 +10490,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10534,31 +10549,31 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10569,10 +10584,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10595,19 +10610,19 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10656,7 +10671,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10668,19 +10683,19 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10691,10 +10706,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10705,7 +10720,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10717,17 +10732,17 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10776,31 +10791,31 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10811,10 +10826,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10825,7 +10840,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10837,17 +10852,17 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10872,13 +10887,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10896,31 +10911,31 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10931,10 +10946,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10945,7 +10960,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10957,17 +10972,17 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11016,31 +11031,31 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11051,10 +11066,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11065,7 +11080,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11077,13 +11092,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11134,25 +11149,25 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
@@ -11169,10 +11184,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11195,19 +11210,19 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11256,7 +11271,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11271,10 +11286,10 @@
         <v>82</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>82</v>
@@ -11291,10 +11306,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11305,7 +11320,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11317,13 +11332,13 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11374,13 +11389,13 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
@@ -11389,7 +11404,7 @@
         <v>82</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>82</v>
@@ -11409,14 +11424,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11435,16 +11450,16 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11494,7 +11509,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11506,10 +11521,10 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
@@ -11529,14 +11544,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11549,25 +11564,25 @@
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11616,7 +11631,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11628,10 +11643,10 @@
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>82</v>
@@ -11651,10 +11666,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11662,13 +11677,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
@@ -11677,19 +11692,19 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11714,11 +11729,11 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11736,31 +11751,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11771,10 +11786,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11785,7 +11800,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11797,19 +11812,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11858,31 +11873,31 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11893,14 +11908,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11919,16 +11934,16 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11978,7 +11993,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11990,19 +12005,19 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12013,10 +12028,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12027,7 +12042,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12036,22 +12051,22 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12100,25 +12115,25 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>82</v>
@@ -12130,15 +12145,15 @@
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12155,25 +12170,25 @@
         <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12222,7 +12237,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12234,13 +12249,13 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>82</v>
@@ -12257,10 +12272,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12271,7 +12286,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12283,13 +12298,13 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12340,13 +12355,13 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
@@ -12355,7 +12370,7 @@
         <v>82</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
@@ -12375,14 +12390,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12401,16 +12416,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12460,7 +12475,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12472,10 +12487,10 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12495,14 +12510,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12515,25 +12530,25 @@
         <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12582,7 +12597,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12594,10 +12609,10 @@
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>82</v>
@@ -12617,10 +12632,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12628,10 +12643,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12640,19 +12655,19 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12702,31 +12717,31 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12737,10 +12752,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12748,10 +12763,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12760,16 +12775,16 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12796,13 +12811,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12820,25 +12835,25 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="645">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -288,7 +288,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -537,6 +537,16 @@
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
+    <t>Patient.extension:genderIdentity</t>
+  </si>
+  <si>
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity}
+</t>
+  </si>
+  <si>
     <t>Patient.extension:religion</t>
   </si>
   <si>
@@ -878,10 +888,6 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-8:Either Patient.name.given and/or Patient.name.family SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -973,7 +979,7 @@
     <t>HumanName.family</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-8
+    <t xml:space="preserve">us-core-6
 </t>
   </si>
   <si>
@@ -2356,7 +2362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP87"/>
+  <dimension ref="A1:AP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2367,7 +2373,7 @@
   <cols>
     <col min="1" max="1" width="38.84375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.27734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2375,7 +2381,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2572,7 +2578,9 @@
       <c r="M2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>82</v>
@@ -3883,10 +3891,10 @@
         <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3946,7 +3954,7 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>141</v>
@@ -3967,18 +3975,18 @@
         <v>82</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>82</v>
@@ -4000,13 +4008,13 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4087,51 +4095,49 @@
         <v>82</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>82</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4194,7 +4200,7 @@
         <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>82</v>
@@ -4209,48 +4215,50 @@
         <v>82</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I16" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4299,7 +4307,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4311,33 +4319,33 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4345,31 +4353,33 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -4417,56 +4427,56 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4478,17 +4488,15 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4525,34 +4533,34 @@
         <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
@@ -4572,46 +4580,44 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4635,46 +4641,46 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
@@ -4683,7 +4689,7 @@
         <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4694,10 +4700,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4714,25 +4720,25 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4757,13 +4763,13 @@
         <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>82</v>
@@ -4781,7 +4787,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4796,7 +4802,7 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
@@ -4805,7 +4811,7 @@
         <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4816,10 +4822,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4827,13 +4833,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
@@ -4842,19 +4848,19 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4867,7 +4873,7 @@
         <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>82</v>
@@ -4879,13 +4885,13 @@
         <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>82</v>
@@ -4903,7 +4909,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4918,7 +4924,7 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
@@ -4927,7 +4933,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4938,10 +4944,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4964,18 +4970,20 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4987,7 +4995,7 @@
         <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>82</v>
@@ -5023,7 +5031,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5038,7 +5046,7 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -5047,7 +5055,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5058,10 +5066,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5069,13 +5077,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5084,15 +5092,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5105,7 +5115,7 @@
         <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>82</v>
@@ -5141,7 +5151,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5156,7 +5166,7 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
@@ -5165,7 +5175,7 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5176,10 +5186,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5202,17 +5212,15 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5261,7 +5269,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5276,7 +5284,7 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
@@ -5285,7 +5293,7 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5296,10 +5304,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5316,32 +5324,28 @@
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q25" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
         <v>82</v>
       </c>
@@ -5400,30 +5404,30 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5431,121 +5435,123 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5553,31 +5559,35 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5625,56 +5635,56 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5686,17 +5696,15 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5733,34 +5741,34 @@
         <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5780,46 +5788,44 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5843,46 +5849,46 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5891,7 +5897,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5902,10 +5908,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5922,25 +5928,25 @@
         <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5965,13 +5971,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5989,7 +5995,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6004,7 +6010,7 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -6013,7 +6019,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6024,14 +6030,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6041,7 +6047,7 @@
         <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6050,18 +6056,20 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -6109,7 +6117,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6118,13 +6126,13 @@
         <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -6133,7 +6141,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6144,21 +6152,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>91</v>
@@ -6170,16 +6178,16 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6229,22 +6237,22 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6253,7 +6261,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6264,14 +6272,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6281,7 +6289,7 @@
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
@@ -6290,15 +6298,17 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6347,7 +6357,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6356,13 +6366,13 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
@@ -6371,7 +6381,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6382,10 +6392,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6408,13 +6418,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6465,7 +6475,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6480,7 +6490,7 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
@@ -6489,7 +6499,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6500,10 +6510,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6514,7 +6524,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6526,18 +6536,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6585,13 +6593,13 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
@@ -6600,7 +6608,7 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
@@ -6609,7 +6617,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6620,10 +6628,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6634,7 +6642,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6646,19 +6654,17 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6707,45 +6713,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6756,7 +6762,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6765,19 +6771,23 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6825,13 +6835,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6840,41 +6850,41 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6886,17 +6896,15 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6933,34 +6941,34 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6980,41 +6988,43 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7039,46 +7049,46 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>203</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -7087,7 +7097,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7098,10 +7108,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7124,20 +7134,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7161,13 +7167,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7185,7 +7191,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7194,13 +7200,13 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7209,7 +7215,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7220,10 +7226,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7231,7 +7237,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7240,25 +7246,25 @@
         <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7283,11 +7289,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7305,7 +7313,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7320,7 +7328,7 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7329,7 +7337,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7340,10 +7348,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7357,27 +7365,29 @@
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7401,13 +7411,11 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7425,7 +7433,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7440,7 +7448,7 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7449,7 +7457,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>195</v>
+        <v>369</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7460,10 +7468,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7486,15 +7494,17 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>240</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7543,7 +7553,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7558,7 +7568,7 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>329</v>
+        <v>198</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7567,7 +7577,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7578,10 +7588,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7589,13 +7599,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7604,20 +7614,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7641,11 +7647,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7663,7 +7671,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7678,30 +7686,30 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>160</v>
+        <v>331</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>385</v>
+        <v>133</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7709,7 +7717,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
@@ -7724,19 +7732,19 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7761,13 +7769,11 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7785,7 +7791,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7800,30 +7806,30 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7837,28 +7843,28 @@
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7907,7 +7913,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7922,30 +7928,30 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7956,31 +7962,31 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8029,13 +8035,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -8044,30 +8050,30 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>413</v>
+        <v>198</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8078,28 +8084,32 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>192</v>
+        <v>410</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -8147,56 +8157,56 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>194</v>
+        <v>408</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>195</v>
+        <v>414</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8208,17 +8218,15 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8255,34 +8263,34 @@
         <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
@@ -8302,46 +8310,44 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>420</v>
+        <v>201</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8353,7 +8359,7 @@
         <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>82</v>
@@ -8365,46 +8371,46 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>426</v>
+        <v>203</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
@@ -8413,7 +8419,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8424,10 +8430,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8444,7 +8450,7 @@
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>91</v>
@@ -8453,15 +8459,17 @@
         <v>110</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8473,7 +8481,7 @@
         <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>82</v>
@@ -8485,13 +8493,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8509,7 +8517,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8524,7 +8532,7 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
@@ -8533,7 +8541,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8544,10 +8552,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8570,20 +8578,18 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8595,7 +8601,7 @@
         <v>82</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>82</v>
@@ -8607,13 +8613,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8631,7 +8637,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8646,7 +8652,7 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
@@ -8655,7 +8661,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8666,10 +8672,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8680,10 +8686,10 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8692,16 +8698,20 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8713,7 +8723,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -8749,13 +8759,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
@@ -8764,7 +8774,7 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>449</v>
+        <v>295</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8773,7 +8783,7 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8784,21 +8794,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>91</v>
@@ -8810,13 +8820,13 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8831,7 +8841,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -8867,13 +8877,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -8882,7 +8892,7 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8891,7 +8901,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8902,14 +8912,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8919,7 +8929,7 @@
         <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -8928,17 +8938,15 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8951,7 +8959,7 @@
         <v>82</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>82</v>
@@ -8987,7 +8995,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9002,7 +9010,7 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
@@ -9011,7 +9019,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9022,14 +9030,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9039,7 +9047,7 @@
         <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
@@ -9048,15 +9056,17 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9069,7 +9079,7 @@
         <v>82</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>82</v>
@@ -9081,13 +9091,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9105,7 +9115,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9120,7 +9130,7 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
@@ -9129,7 +9139,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9140,14 +9150,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9166,13 +9176,13 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9187,7 +9197,7 @@
         <v>82</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>82</v>
@@ -9199,13 +9209,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9223,7 +9233,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9238,7 +9248,7 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>82</v>
@@ -9247,7 +9257,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9258,14 +9268,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9275,7 +9285,7 @@
         <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9284,17 +9294,15 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9307,7 +9315,7 @@
         <v>82</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>82</v>
@@ -9343,7 +9351,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9358,7 +9366,7 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
@@ -9367,7 +9375,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9378,10 +9386,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9395,7 +9403,7 @@
         <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9404,18 +9412,18 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9427,7 +9435,7 @@
         <v>82</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>82</v>
@@ -9463,7 +9471,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9478,7 +9486,7 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>329</v>
+        <v>492</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
@@ -9487,7 +9495,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9498,10 +9506,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9515,26 +9523,26 @@
         <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9547,7 +9555,7 @@
         <v>82</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>82</v>
@@ -9559,13 +9567,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9598,30 +9606,30 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>505</v>
+        <v>331</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>508</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9644,19 +9652,17 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>510</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9681,13 +9687,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9705,7 +9711,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9720,30 +9726,30 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>195</v>
+        <v>508</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9754,7 +9760,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9766,19 +9772,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9827,13 +9833,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
@@ -9842,16 +9848,16 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9862,10 +9868,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9888,19 +9894,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9949,7 +9955,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9961,33 +9967,33 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>531</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9998,7 +10004,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -10010,16 +10016,20 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>191</v>
+        <v>528</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>192</v>
+        <v>529</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10067,25 +10077,25 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>194</v>
+        <v>527</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>195</v>
+        <v>534</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>82</v>
@@ -10097,26 +10107,26 @@
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10128,17 +10138,15 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10187,22 +10195,22 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10222,14 +10230,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>537</v>
+        <v>177</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10242,26 +10250,24 @@
         <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>538</v>
+        <v>200</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>539</v>
+        <v>201</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10309,7 +10315,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>540</v>
+        <v>203</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10324,7 +10330,7 @@
         <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10344,14 +10350,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10364,23 +10370,25 @@
         <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>544</v>
+        <v>181</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10405,13 +10413,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10429,7 +10437,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10441,19 +10449,19 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>547</v>
+        <v>133</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10464,10 +10472,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10478,7 +10486,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10490,17 +10498,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10525,13 +10533,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10549,13 +10557,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10564,16 +10572,16 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>271</v>
+        <v>549</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10584,10 +10592,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10598,7 +10606,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10610,19 +10618,17 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10671,13 +10677,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10686,16 +10692,16 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10706,10 +10712,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10720,7 +10726,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10732,17 +10738,19 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>407</v>
+        <v>334</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>562</v>
+        <v>338</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10791,13 +10799,13 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
@@ -10806,16 +10814,16 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10826,10 +10834,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10852,17 +10860,17 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>409</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>379</v>
+        <v>562</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10887,13 +10895,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10911,7 +10919,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10926,16 +10934,16 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10946,10 +10954,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10972,17 +10980,17 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>571</v>
+        <v>381</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11007,13 +11015,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>82</v>
+        <v>569</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>82</v>
+        <v>570</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11031,7 +11039,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11040,22 +11048,22 @@
         <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>575</v>
+        <v>160</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11066,10 +11074,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11092,16 +11100,18 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11149,7 +11159,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11158,22 +11168,22 @@
         <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>576</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11184,10 +11194,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11198,7 +11208,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11210,20 +11220,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>526</v>
+        <v>243</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11271,25 +11277,25 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>587</v>
+        <v>198</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>82</v>
@@ -11306,10 +11312,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11320,7 +11326,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11332,16 +11338,20 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>191</v>
+        <v>528</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>192</v>
+        <v>584</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11389,13 +11399,13 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>194</v>
+        <v>583</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
@@ -11404,10 +11414,10 @@
         <v>82</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>195</v>
+        <v>588</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
@@ -11424,21 +11434,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11450,17 +11460,15 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11509,22 +11517,22 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
@@ -11544,14 +11552,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>537</v>
+        <v>177</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11564,26 +11572,24 @@
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>538</v>
+        <v>200</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>539</v>
+        <v>201</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11631,7 +11637,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>540</v>
+        <v>203</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11646,7 +11652,7 @@
         <v>141</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>82</v>
@@ -11666,45 +11672,45 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I78" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>593</v>
+        <v>541</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>594</v>
+        <v>180</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>595</v>
+        <v>181</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11729,11 +11735,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y78" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z78" t="s" s="2">
-        <v>596</v>
+        <v>82</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11751,31 +11759,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>597</v>
+        <v>133</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11786,10 +11794,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11797,13 +11805,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -11812,19 +11820,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11849,13 +11857,11 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11873,10 +11879,10 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>90</v>
@@ -11888,16 +11894,16 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11908,21 +11914,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11934,18 +11940,20 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>610</v>
+        <v>258</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11993,13 +12001,13 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
@@ -12008,16 +12016,16 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>195</v>
+        <v>608</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12028,21 +12036,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>611</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12051,23 +12059,21 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>247</v>
+        <v>612</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12115,13 +12121,13 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -12130,30 +12136,30 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>621</v>
+        <v>198</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>82</v>
+        <v>617</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>622</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12164,31 +12170,31 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>526</v>
+        <v>250</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12237,13 +12243,13 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
@@ -12252,10 +12258,10 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>195</v>
+        <v>623</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>82</v>
@@ -12267,15 +12273,15 @@
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>82</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12286,28 +12292,32 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>191</v>
+        <v>528</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>192</v>
+        <v>626</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12355,25 +12365,25 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>194</v>
+        <v>625</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>195</v>
+        <v>630</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>82</v>
@@ -12390,21 +12400,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12416,17 +12426,15 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12475,22 +12483,22 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12510,14 +12518,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>537</v>
+        <v>177</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12530,26 +12538,24 @@
         <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>538</v>
+        <v>200</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>539</v>
+        <v>201</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12597,7 +12603,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>540</v>
+        <v>203</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12612,7 +12618,7 @@
         <v>141</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>82</v>
@@ -12632,44 +12638,46 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>633</v>
+        <v>135</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>634</v>
+        <v>540</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>635</v>
+        <v>541</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12717,31 +12725,31 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>632</v>
+        <v>542</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>637</v>
+        <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12752,10 +12760,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12778,15 +12786,17 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>110</v>
+        <v>635</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12811,13 +12821,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>641</v>
+        <v>82</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12835,7 +12845,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>90</v>
@@ -12850,26 +12860,144 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="AL87" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP87" t="s" s="2">
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP88" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP87">
+  <autoFilter ref="A1:AP88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12879,7 +13007,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="606">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,18 +86,28 @@
   <si>
     <t>A profile on the Patient resource for MHV PHR exposing Patient using FHIR API.
 - based on US-Core for Patient
-- record the ICN value into the Patient.identifier
-  - seems other ID values are possible too such as mpiPID, localPID, SSN.
-- some elements could be converted into `codes` but doing minimal translation. 
-- notes given example
-  - dropping age as not useful in persisted data, prefer dob
-  - dropping occupation - could be recorded as SDOH Observation
-  - dropping confidentiality flag - not sure the meaning - could be .meta.security
-  - dropping patientFlags - not sure the meaning
-  - dropping activeInsurance - could go into Account resource - could go in extension as text blob
-  - dropping currentMeansStatus
-  - dropping elegibilityCode
-Mapping to [VDIF PatientTO](StructureDefinition-VA.MHV.PHR.patient-mappings.html#mappings-for-vdif-to-mhv-phr-patientto)</t>
+- mapping from patient details in eVault (not from VIA/HDR transaction)
+- `identifier`  
+  - `value` = GetPatientId
+  - `system` = `urn:oid:2.16.840.1.113883.4.349`
+  - not using ICN but rather the id value known to eVault. There is concern the ICN is not unique enough.
+- `name` - First and Last Name
+- `gender`
+- `birthDate`
+- `active` = true
+mapping concerns - JIRA
+- The Identifier for the ICN is still being discussed
+- identifer.use is not being populated
+- name seems to only populate first and last, but puts them both in given
+- populating identifier with GetPatientId(), not sure that is the same as GetIcn()
+- eVault also has, but are not being used in the FHIR Patient
+  - MiddleName
+  - Ssn
+  - Email
+  - Icn 
+- set .meta.profile
+- Would be even better if we could use a common Patient registry. 
+NOT USING Mapping to [VDIF PatientTO](StructureDefinition-VA.MHV.PHR.patient-mappings.html#mappings-for-vdif-to-mhv-phr-patientto)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -421,44 +431,6 @@
 </t>
   </si>
   <si>
-    <t>Patient.extension:religion</t>
-  </si>
-  <si>
-    <t>religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-religion}
-</t>
-  </si>
-  <si>
-    <t>The patient's professed religious affiliations</t>
-  </si>
-  <si>
-    <t>The patient's professed religious affiliations.</t>
-  </si>
-  <si>
-    <t>PatientTO.religion</t>
-  </si>
-  <si>
-    <t>Patient.extension:birthPlace</t>
-  </si>
-  <si>
-    <t>birthPlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
-</t>
-  </si>
-  <si>
-    <t>Place of Birth for patient</t>
-  </si>
-  <si>
-    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
-  </si>
-  <si>
-    <t>PatientTO.demographics.demographicsSetTO.Addresses.addressTO.city + PatientTO.demographics.demographicsSetTO.Addresses.addressTO.state</t>
-  </si>
-  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -498,6 +470,10 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -707,6 +683,45 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId</t>
+  </si>
+  <si>
+    <t>PatientId</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId.use</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId.value</t>
+  </si>
+  <si>
+    <t>{eVault PatientID}</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PatientId.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -732,6 +747,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -2236,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP87"/>
+  <dimension ref="A1:AP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2271,7 +2289,7 @@
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.12890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2284,7 +2302,7 @@
     <col min="39" max="39" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="102.75390625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="8.40234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="132.6953125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="61.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3728,41 +3746,43 @@
         <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>40</v>
       </c>
@@ -3810,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3825,7 +3845,7 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -3840,37 +3860,35 @@
         <v>40</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s" s="2">
         <v>129</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>130</v>
@@ -3882,7 +3900,9 @@
         <v>132</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
       </c>
@@ -3918,19 +3938,17 @@
         <v>40</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3942,69 +3960,65 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>40</v>
       </c>
@@ -4052,22 +4066,22 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -4087,44 +4101,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>40</v>
       </c>
@@ -4160,19 +4174,19 @@
         <v>40</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -4184,25 +4198,25 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -4227,22 +4241,26 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>40</v>
       </c>
@@ -4266,13 +4284,13 @@
         <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>40</v>
@@ -4290,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -4302,10 +4320,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -4314,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -4325,21 +4343,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -4348,21 +4366,23 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>40</v>
       </c>
@@ -4386,47 +4406,47 @@
         <v>40</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AC18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AD18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
@@ -4434,7 +4454,7 @@
         <v>40</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4445,10 +4465,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4456,34 +4476,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>40</v>
@@ -4496,7 +4516,7 @@
         <v>40</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>40</v>
@@ -4508,13 +4528,13 @@
         <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>40</v>
@@ -4532,7 +4552,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4547,7 +4567,7 @@
         <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -4556,7 +4576,7 @@
         <v>40</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4567,10 +4587,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4578,13 +4598,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>40</v>
@@ -4593,20 +4613,18 @@
         <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>40</v>
       </c>
@@ -4618,7 +4636,7 @@
         <v>40</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>40</v>
@@ -4630,13 +4648,13 @@
         <v>40</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>40</v>
@@ -4654,7 +4672,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4669,7 +4687,7 @@
         <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -4678,7 +4696,7 @@
         <v>40</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4689,10 +4707,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4700,13 +4718,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>40</v>
@@ -4715,20 +4733,16 @@
         <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>40</v>
       </c>
@@ -4740,7 +4754,7 @@
         <v>40</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>40</v>
@@ -4776,7 +4790,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4791,7 +4805,7 @@
         <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -4800,7 +4814,7 @@
         <v>40</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -4811,10 +4825,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4822,13 +4836,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>40</v>
@@ -4837,16 +4851,16 @@
         <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4860,7 +4874,7 @@
         <v>40</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>40</v>
@@ -4896,7 +4910,7 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4911,7 +4925,7 @@
         <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4920,7 +4934,7 @@
         <v>40</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>40</v>
@@ -4931,24 +4945,26 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>40</v>
@@ -4957,16 +4973,18 @@
         <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
       </c>
@@ -5014,13 +5032,13 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
@@ -5029,16 +5047,16 @@
         <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>40</v>
@@ -5049,10 +5067,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5072,20 +5090,18 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -5134,7 +5150,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -5146,10 +5162,10 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -5158,7 +5174,7 @@
         <v>40</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>40</v>
@@ -5169,52 +5185,48 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="Q25" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
         <v>40</v>
       </c>
@@ -5246,40 +5258,40 @@
         <v>40</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
@@ -5288,15 +5300,15 @@
         <v>40</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5307,31 +5319,31 @@
         <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -5341,7 +5353,7 @@
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>40</v>
@@ -5356,13 +5368,13 @@
         <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>40</v>
@@ -5380,13 +5392,13 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
@@ -5395,30 +5407,30 @@
         <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5438,19 +5450,23 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
       </c>
@@ -5474,13 +5490,13 @@
         <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>40</v>
@@ -5498,7 +5514,7 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5510,10 +5526,10 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -5522,7 +5538,7 @@
         <v>40</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
@@ -5533,44 +5549,46 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
       </c>
@@ -5582,7 +5600,7 @@
         <v>40</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>40</v>
@@ -5606,34 +5624,34 @@
         <v>40</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -5642,7 +5660,7 @@
         <v>40</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
@@ -5653,10 +5671,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5664,35 +5682,33 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>40</v>
       </c>
@@ -5704,7 +5720,7 @@
         <v>40</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>40</v>
@@ -5716,13 +5732,13 @@
         <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>40</v>
@@ -5740,7 +5756,7 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5755,7 +5771,7 @@
         <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -5764,7 +5780,7 @@
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
@@ -5775,10 +5791,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5801,20 +5817,16 @@
         <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>40</v>
       </c>
@@ -5862,7 +5874,7 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5877,7 +5889,7 @@
         <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -5886,7 +5898,7 @@
         <v>40</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>40</v>
@@ -5897,14 +5909,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5914,7 +5926,7 @@
         <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>40</v>
@@ -5923,16 +5935,16 @@
         <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5982,7 +5994,7 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5991,13 +6003,13 @@
         <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -6006,7 +6018,7 @@
         <v>40</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
@@ -6017,53 +6029,57 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="R32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>40</v>
@@ -6102,45 +6118,45 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6148,13 +6164,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
@@ -6163,16 +6179,20 @@
         <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
       </c>
@@ -6220,7 +6240,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -6235,30 +6255,30 @@
         <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6269,7 +6289,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -6278,16 +6298,16 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6338,22 +6358,22 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -6362,7 +6382,7 @@
         <v>40</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>40</v>
@@ -6373,21 +6393,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -6396,21 +6416,21 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>40</v>
       </c>
@@ -6446,34 +6466,34 @@
         <v>40</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -6482,7 +6502,7 @@
         <v>40</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>40</v>
@@ -6493,10 +6513,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6507,31 +6527,31 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6556,13 +6576,13 @@
         <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>40</v>
@@ -6580,45 +6600,45 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6638,19 +6658,23 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
       </c>
@@ -6698,7 +6722,7 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6710,10 +6734,10 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -6722,7 +6746,7 @@
         <v>40</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
@@ -6733,42 +6757,42 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6806,34 +6830,34 @@
         <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -6842,7 +6866,7 @@
         <v>40</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -6853,14 +6877,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6879,15 +6903,17 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6912,13 +6938,13 @@
         <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>40</v>
@@ -6936,22 +6962,22 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -6960,7 +6986,7 @@
         <v>40</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -6971,10 +6997,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6982,13 +7008,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
@@ -6997,20 +7023,16 @@
         <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>40</v>
       </c>
@@ -7058,13 +7080,13 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
@@ -7073,7 +7095,7 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -7082,7 +7104,7 @@
         <v>40</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
@@ -7093,10 +7115,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7107,32 +7129,28 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>40</v>
       </c>
@@ -7156,11 +7174,13 @@
         <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>40</v>
@@ -7178,13 +7198,13 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
@@ -7193,7 +7213,7 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -7202,7 +7222,7 @@
         <v>40</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>40</v>
@@ -7213,10 +7233,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7239,18 +7259,18 @@
         <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
       </c>
@@ -7298,7 +7318,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7313,7 +7333,7 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -7322,7 +7342,7 @@
         <v>40</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>40</v>
@@ -7333,10 +7353,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7347,7 +7367,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -7359,16 +7379,20 @@
         <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
       </c>
@@ -7416,45 +7440,45 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7462,35 +7486,31 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>40</v>
       </c>
@@ -7514,11 +7534,13 @@
         <v>40</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>40</v>
@@ -7536,7 +7558,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>338</v>
+        <v>144</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7548,69 +7570,67 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>346</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>148</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>40</v>
       </c>
@@ -7646,57 +7666,57 @@
         <v>40</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>150</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>145</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7704,35 +7724,31 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>68</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>40</v>
       </c>
@@ -7756,13 +7772,13 @@
         <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>40</v>
@@ -7780,7 +7796,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7789,22 +7805,22 @@
         <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>40</v>
@@ -7815,10 +7831,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7826,10 +7842,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>49</v>
@@ -7841,19 +7857,19 @@
         <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7902,13 +7918,13 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>40</v>
@@ -7917,30 +7933,30 @@
         <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>373</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>375</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7954,25 +7970,29 @@
         <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
       </c>
@@ -7996,13 +8016,11 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8020,7 +8038,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>155</v>
+        <v>329</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -8032,10 +8050,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -8044,7 +8062,7 @@
         <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
@@ -8055,21 +8073,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -8078,19 +8096,19 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>138</v>
+        <v>335</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8128,34 +8146,34 @@
         <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -8164,7 +8182,7 @@
         <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8175,10 +8193,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8195,26 +8213,22 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>40</v>
       </c>
@@ -8226,7 +8240,7 @@
         <v>40</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>40</v>
@@ -8238,13 +8252,13 @@
         <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
@@ -8262,7 +8276,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8277,7 +8291,7 @@
         <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -8286,7 +8300,7 @@
         <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>91</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8297,10 +8311,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8308,13 +8322,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
@@ -8326,15 +8340,17 @@
         <v>68</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
       </c>
@@ -8346,7 +8362,7 @@
         <v>40</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>40</v>
@@ -8358,13 +8374,11 @@
         <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>40</v>
@@ -8382,7 +8396,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8397,30 +8411,30 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8428,13 +8442,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>40</v>
@@ -8443,19 +8457,19 @@
         <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
@@ -8468,7 +8482,7 @@
         <v>40</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>401</v>
+        <v>40</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>40</v>
@@ -8504,7 +8518,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8519,30 +8533,30 @@
         <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8553,28 +8567,32 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
       </c>
@@ -8586,7 +8604,7 @@
         <v>40</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>40</v>
@@ -8622,13 +8640,13 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
@@ -8637,16 +8655,16 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -8657,21 +8675,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>49</v>
@@ -8683,16 +8701,20 @@
         <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>152</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
       </c>
@@ -8704,7 +8726,7 @@
         <v>40</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>40</v>
@@ -8740,13 +8762,13 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>40</v>
@@ -8755,34 +8777,34 @@
         <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>40</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8798,20 +8820,18 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>142</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -8824,7 +8844,7 @@
         <v>40</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>40</v>
@@ -8860,7 +8880,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>144</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8872,10 +8892,10 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>426</v>
+        <v>145</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -8884,7 +8904,7 @@
         <v>40</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -8895,41 +8915,43 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>429</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>147</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -8954,46 +8976,46 @@
         <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>432</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>433</v>
+        <v>40</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>434</v>
+        <v>150</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>435</v>
+        <v>145</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -9002,7 +9024,7 @@
         <v>40</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>436</v>
+        <v>40</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9013,14 +9035,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>438</v>
+        <v>40</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9030,25 +9052,29 @@
         <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
       </c>
@@ -9060,7 +9086,7 @@
         <v>40</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>40</v>
@@ -9072,13 +9098,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>40</v>
+        <v>387</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9096,7 +9122,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9111,7 +9137,7 @@
         <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>443</v>
+        <v>248</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -9120,7 +9146,7 @@
         <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
@@ -9131,10 +9157,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9157,16 +9183,16 @@
         <v>49</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9180,7 +9206,7 @@
         <v>40</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>40</v>
@@ -9192,13 +9218,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>40</v>
+        <v>397</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -9216,7 +9242,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9231,7 +9257,7 @@
         <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>450</v>
+        <v>248</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -9240,7 +9266,7 @@
         <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9251,10 +9277,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9268,7 +9294,7 @@
         <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>40</v>
@@ -9277,17 +9303,19 @@
         <v>49</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>455</v>
+        <v>254</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -9300,7 +9328,7 @@
         <v>40</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>40</v>
@@ -9336,7 +9364,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9351,7 +9379,7 @@
         <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -9360,7 +9388,7 @@
         <v>40</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
@@ -9371,10 +9399,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9385,30 +9413,28 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>40</v>
       </c>
@@ -9420,7 +9446,7 @@
         <v>40</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>40</v>
@@ -9432,13 +9458,13 @@
         <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>464</v>
+        <v>40</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>40</v>
@@ -9456,13 +9482,13 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
@@ -9471,34 +9497,34 @@
         <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>466</v>
+        <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>468</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9508,29 +9534,25 @@
         <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>470</v>
+        <v>141</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>40</v>
       </c>
@@ -9542,7 +9564,7 @@
         <v>40</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>40</v>
+        <v>418</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>40</v>
@@ -9578,7 +9600,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9593,16 +9615,16 @@
         <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -9613,21 +9635,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>40</v>
+        <v>423</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -9636,23 +9658,21 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>478</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>40</v>
       </c>
@@ -9664,7 +9684,7 @@
         <v>40</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>40</v>
@@ -9700,13 +9720,13 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
@@ -9715,16 +9735,16 @@
         <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>484</v>
+        <v>430</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -9735,46 +9755,42 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>486</v>
+        <v>141</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>40</v>
       </c>
@@ -9798,13 +9814,13 @@
         <v>40</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>40</v>
+        <v>436</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>40</v>
@@ -9822,49 +9838,49 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>491</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>40</v>
+        <v>439</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>493</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>40</v>
+        <v>441</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9874,22 +9890,22 @@
         <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>153</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>154</v>
+        <v>443</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9904,7 +9920,7 @@
         <v>40</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>40</v>
+        <v>444</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>40</v>
@@ -9940,7 +9956,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>155</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -9952,10 +9968,10 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>156</v>
+        <v>446</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -9964,7 +9980,7 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>40</v>
+        <v>447</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
@@ -9975,21 +9991,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -9998,19 +10014,19 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>159</v>
+        <v>450</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>138</v>
+        <v>451</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10060,22 +10076,22 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>161</v>
+        <v>452</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>156</v>
+        <v>453</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -10084,7 +10100,7 @@
         <v>40</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>40</v>
+        <v>454</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10095,45 +10111,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>497</v>
+        <v>40</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>139</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>40</v>
@@ -10146,7 +10160,7 @@
         <v>40</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>40</v>
+        <v>459</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>40</v>
@@ -10182,22 +10196,22 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -10206,7 +10220,7 @@
         <v>40</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>40</v>
+        <v>461</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10217,10 +10231,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10231,7 +10245,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -10243,17 +10257,17 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
@@ -10278,13 +10292,13 @@
         <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10302,13 +10316,13 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
@@ -10317,30 +10331,30 @@
         <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>156</v>
+        <v>469</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>40</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10351,7 +10365,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -10363,17 +10377,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>226</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O68" t="s" s="2">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10422,7 +10438,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10437,16 +10453,16 @@
         <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>231</v>
+        <v>478</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -10457,10 +10473,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10471,7 +10487,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -10483,19 +10499,19 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>292</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>296</v>
+        <v>485</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -10544,7 +10560,7 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10559,16 +10575,16 @@
         <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>297</v>
+        <v>486</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -10579,10 +10595,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10593,7 +10609,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -10605,17 +10621,19 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>367</v>
+        <v>489</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>40</v>
@@ -10664,45 +10682,45 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>494</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>372</v>
+        <v>495</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>523</v>
+        <v>40</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>40</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10725,18 +10743,16 @@
         <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>525</v>
+        <v>143</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>526</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>40</v>
       </c>
@@ -10760,13 +10776,13 @@
         <v>40</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>527</v>
+        <v>40</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>528</v>
+        <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>40</v>
@@ -10784,7 +10800,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>524</v>
+        <v>144</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -10796,19 +10812,19 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>529</v>
+        <v>40</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -10819,21 +10835,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -10845,18 +10861,18 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>531</v>
+        <v>147</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>40</v>
       </c>
@@ -10904,31 +10920,31 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>534</v>
+        <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>535</v>
+        <v>145</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>536</v>
+        <v>40</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -10939,42 +10955,46 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
       </c>
@@ -11022,25 +11042,25 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>540</v>
+        <v>91</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
@@ -11057,10 +11077,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11083,19 +11103,17 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>486</v>
+        <v>162</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11120,13 +11138,13 @@
         <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>40</v>
+        <v>508</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>40</v>
+        <v>509</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -11144,7 +11162,7 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11156,19 +11174,19 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>547</v>
+        <v>145</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>40</v>
+        <v>511</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11179,10 +11197,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11205,16 +11223,18 @@
         <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>153</v>
+        <v>513</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>154</v>
+        <v>514</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
@@ -11262,7 +11282,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>155</v>
+        <v>512</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11274,19 +11294,19 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>40</v>
+        <v>516</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11297,14 +11317,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11323,18 +11343,20 @@
         <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>158</v>
+        <v>518</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>159</v>
+        <v>519</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
       </c>
@@ -11382,7 +11404,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>161</v>
+        <v>517</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11394,19 +11416,19 @@
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>40</v>
+        <v>521</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -11417,45 +11439,43 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>497</v>
+        <v>40</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>139</v>
+        <v>525</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -11504,31 +11524,31 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>91</v>
+        <v>375</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>40</v>
+        <v>526</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
@@ -11539,10 +11559,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11550,13 +11570,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>40</v>
@@ -11565,19 +11585,17 @@
         <v>40</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>552</v>
+        <v>342</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11602,11 +11620,13 @@
         <v>40</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y78" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="Z78" t="s" s="2">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -11624,10 +11644,10 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>48</v>
@@ -11639,16 +11659,16 @@
         <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>557</v>
+        <v>118</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>558</v>
+        <v>145</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
@@ -11659,10 +11679,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11685,19 +11705,17 @@
         <v>40</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11746,7 +11764,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -11755,22 +11773,22 @@
         <v>48</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>537</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>566</v>
+        <v>145</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -11781,21 +11799,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>569</v>
+        <v>40</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -11807,17 +11825,15 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>570</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -11866,13 +11882,13 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
@@ -11881,16 +11897,16 @@
         <v>60</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>575</v>
+        <v>40</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
@@ -11901,10 +11917,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11915,7 +11931,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -11924,22 +11940,22 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>208</v>
+        <v>489</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -11988,25 +12004,25 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -12018,15 +12034,15 @@
         <v>40</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>582</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12037,32 +12053,28 @@
         <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>486</v>
+        <v>141</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>584</v>
+        <v>142</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>40</v>
       </c>
@@ -12110,25 +12122,25 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>583</v>
+        <v>144</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>588</v>
+        <v>145</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -12145,21 +12157,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -12171,15 +12183,17 @@
         <v>40</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>40</v>
@@ -12228,22 +12242,22 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -12263,14 +12277,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12283,24 +12297,26 @@
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>93</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>158</v>
+        <v>501</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>159</v>
+        <v>502</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
       </c>
@@ -12348,7 +12364,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>161</v>
+        <v>503</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -12363,7 +12379,7 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -12383,45 +12399,45 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>497</v>
+        <v>40</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>138</v>
+        <v>557</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>139</v>
+        <v>558</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
@@ -12446,13 +12462,11 @@
         <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>40</v>
+        <v>559</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -12470,31 +12484,31 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>91</v>
+        <v>560</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>40</v>
+        <v>561</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>40</v>
+        <v>562</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
@@ -12505,10 +12519,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12516,7 +12530,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>48</v>
@@ -12528,21 +12542,23 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>593</v>
+        <v>218</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
       </c>
@@ -12590,10 +12606,10 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>48</v>
@@ -12605,16 +12621,16 @@
         <v>60</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>146</v>
+        <v>568</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>156</v>
+        <v>569</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>40</v>
@@ -12625,21 +12641,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>40</v>
+        <v>572</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>40</v>
@@ -12648,18 +12664,20 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>68</v>
+        <v>573</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -12684,13 +12702,13 @@
         <v>40</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>601</v>
+        <v>40</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>40</v>
@@ -12708,13 +12726,13 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>40</v>
@@ -12723,26 +12741,868 @@
         <v>60</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="M94" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP87" t="s" s="2">
+      <c r="Y94" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP87">
+  <autoFilter ref="A1:AP94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12752,7 +13612,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.patient</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -107,7 +107,7 @@
   - Icn 
 - set .meta.profile
 - Would be even better if we could use a common Patient registry. 
-NOT USING Mapping to [VDIF PatientTO](StructureDefinition-VA.MHV.PHR.patient-mappings.html#mappings-for-vdif-to-mhv-phr-patientto)</t>
+NOT USING Mapping to [VIA PatientTO](StructureDefinition-VA.MHV.PHR.patient-mappings.html#mappings-for-via-to-mhv-phr-patientto)</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="607">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-6:Either Patient.name.given and/or Patient.name.family SHALL be present or a Data Absent Reason Extension SHALL be present. {(name.family.exists() or name.given.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2404,13 +2408,13 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>40</v>
@@ -2422,15 +2426,15 @@
         <v>40</v>
       </c>
       <c r="AP1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2441,7 +2445,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2450,19 +2454,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2512,13 +2516,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2547,10 +2551,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2561,7 +2565,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2570,16 +2574,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2630,19 +2634,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2665,10 +2669,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2679,28 +2683,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2750,19 +2754,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2785,10 +2789,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2799,7 +2803,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2811,16 +2815,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2846,13 +2850,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2870,19 +2874,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2905,21 +2909,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2931,16 +2935,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2990,22 +2994,22 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -3025,14 +3029,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3051,16 +3055,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3110,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3125,7 +3129,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -3145,10 +3149,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3171,13 +3175,13 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3216,17 +3220,17 @@
         <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3238,7 +3242,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -3261,13 +3265,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>40</v>
@@ -3277,7 +3281,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>40</v>
@@ -3289,13 +3293,13 @@
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3346,7 +3350,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3355,10 +3359,10 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -3376,18 +3380,18 @@
         <v>40</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>40</v>
@@ -3397,7 +3401,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>40</v>
@@ -3409,13 +3413,13 @@
         <v>40</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3466,7 +3470,7 @@
         <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3475,10 +3479,10 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>40</v>
@@ -3496,18 +3500,18 @@
         <v>40</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>40</v>
@@ -3517,7 +3521,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -3529,16 +3533,16 @@
         <v>40</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3588,7 +3592,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3597,13 +3601,13 @@
         <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
@@ -3623,13 +3627,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>40</v>
@@ -3639,7 +3643,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -3651,13 +3655,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3708,7 +3712,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3717,10 +3721,10 @@
         <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>40</v>
@@ -3743,14 +3747,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3763,25 +3767,25 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>40</v>
@@ -3830,7 +3834,7 @@
         <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3842,10 +3846,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -3865,10 +3869,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3876,32 +3880,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -3938,17 +3942,17 @@
         <v>40</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3960,33 +3964,33 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3997,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -4009,13 +4013,13 @@
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4066,13 +4070,13 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
@@ -4081,7 +4085,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -4101,14 +4105,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4127,16 +4131,16 @@
         <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4174,19 +4178,19 @@
         <v>40</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -4198,10 +4202,10 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -4221,10 +4225,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4235,31 +4239,31 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>40</v>
@@ -4284,13 +4288,13 @@
         <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>40</v>
@@ -4308,22 +4312,22 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -4332,7 +4336,7 @@
         <v>40</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -4343,10 +4347,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4357,7 +4361,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -4366,22 +4370,22 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>40</v>
@@ -4406,13 +4410,13 @@
         <v>40</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>40</v>
@@ -4430,22 +4434,22 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -4454,7 +4458,7 @@
         <v>40</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4465,10 +4469,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4476,34 +4480,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>40</v>
@@ -4516,7 +4520,7 @@
         <v>40</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>40</v>
@@ -4552,22 +4556,22 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -4576,7 +4580,7 @@
         <v>40</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4587,10 +4591,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4598,31 +4602,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4636,7 +4640,7 @@
         <v>40</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>40</v>
@@ -4672,22 +4676,22 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -4696,7 +4700,7 @@
         <v>40</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4707,10 +4711,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4721,7 +4725,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
@@ -4730,16 +4734,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4790,22 +4794,22 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -4814,7 +4818,7 @@
         <v>40</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -4825,10 +4829,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4839,7 +4843,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
@@ -4848,19 +4852,19 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4910,22 +4914,22 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4934,7 +4938,7 @@
         <v>40</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>40</v>
@@ -4945,45 +4949,45 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -5032,7 +5036,7 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -5044,19 +5048,19 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>40</v>
@@ -5067,10 +5071,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5081,7 +5085,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -5093,13 +5097,13 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5150,13 +5154,13 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>40</v>
@@ -5165,7 +5169,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -5185,14 +5189,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5211,16 +5215,16 @@
         <v>40</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5258,19 +5262,19 @@
         <v>40</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -5282,10 +5286,10 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -5305,10 +5309,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5316,34 +5320,34 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -5353,7 +5357,7 @@
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>40</v>
@@ -5368,13 +5372,13 @@
         <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>40</v>
@@ -5392,22 +5396,22 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -5416,7 +5420,7 @@
         <v>40</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -5427,10 +5431,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5441,7 +5445,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -5450,22 +5454,22 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5490,13 +5494,13 @@
         <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>40</v>
@@ -5514,22 +5518,22 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -5538,7 +5542,7 @@
         <v>40</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
@@ -5549,10 +5553,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5560,34 +5564,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
@@ -5600,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>40</v>
@@ -5636,22 +5640,22 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -5660,7 +5664,7 @@
         <v>40</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
@@ -5671,10 +5675,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5682,31 +5686,31 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5720,7 +5724,7 @@
         <v>40</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>40</v>
@@ -5756,22 +5760,22 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -5780,7 +5784,7 @@
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
@@ -5791,10 +5795,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5805,7 +5809,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -5814,16 +5818,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5874,22 +5878,22 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -5898,7 +5902,7 @@
         <v>40</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>40</v>
@@ -5909,10 +5913,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5923,7 +5927,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -5932,19 +5936,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5994,22 +5998,22 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -6018,7 +6022,7 @@
         <v>40</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
@@ -6029,10 +6033,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6043,103 +6047,103 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>40</v>
@@ -6148,15 +6152,15 @@
         <v>40</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6164,34 +6168,34 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6240,7 +6244,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -6252,33 +6256,33 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6289,7 +6293,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -6301,13 +6305,13 @@
         <v>40</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6358,13 +6362,13 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
@@ -6373,7 +6377,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -6393,14 +6397,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6419,16 +6423,16 @@
         <v>40</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6466,19 +6470,19 @@
         <v>40</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6490,10 +6494,10 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -6513,10 +6517,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6527,31 +6531,31 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6576,13 +6580,13 @@
         <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>40</v>
@@ -6600,22 +6604,22 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -6624,7 +6628,7 @@
         <v>40</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>40</v>
@@ -6635,10 +6639,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6649,7 +6653,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -6658,22 +6662,22 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6722,22 +6726,22 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -6746,7 +6750,7 @@
         <v>40</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
@@ -6757,42 +6761,42 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6842,22 +6846,22 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -6866,7 +6870,7 @@
         <v>40</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -6877,42 +6881,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6962,7 +6966,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6971,13 +6975,13 @@
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -6986,7 +6990,7 @@
         <v>40</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -6997,10 +7001,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7020,16 +7024,16 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7080,7 +7084,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -7092,10 +7096,10 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -7104,7 +7108,7 @@
         <v>40</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
@@ -7115,10 +7119,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7138,16 +7142,16 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7198,7 +7202,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7210,10 +7214,10 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -7222,7 +7226,7 @@
         <v>40</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>40</v>
@@ -7233,10 +7237,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7247,7 +7251,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -7256,20 +7260,20 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
@@ -7318,22 +7322,22 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -7342,7 +7346,7 @@
         <v>40</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>40</v>
@@ -7353,10 +7357,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7376,22 +7380,22 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7440,7 +7444,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7452,33 +7456,33 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7489,7 +7493,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>40</v>
@@ -7501,13 +7505,13 @@
         <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7558,13 +7562,13 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>40</v>
@@ -7573,7 +7577,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -7593,14 +7597,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7619,16 +7623,16 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7666,19 +7670,19 @@
         <v>40</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7690,10 +7694,10 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -7713,10 +7717,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7724,28 +7728,28 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7772,13 +7776,13 @@
         <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>40</v>
@@ -7796,22 +7800,22 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -7820,7 +7824,7 @@
         <v>40</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>40</v>
@@ -7831,10 +7835,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7842,34 +7846,34 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7918,22 +7922,22 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -7942,7 +7946,7 @@
         <v>40</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>40</v>
@@ -7953,10 +7957,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7967,31 +7971,31 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -8016,11 +8020,11 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8038,22 +8042,22 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -8062,7 +8066,7 @@
         <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
@@ -8073,10 +8077,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8087,7 +8091,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -8096,19 +8100,19 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8158,22 +8162,22 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -8182,7 +8186,7 @@
         <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8193,10 +8197,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8207,7 +8211,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -8216,16 +8220,16 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8276,22 +8280,22 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -8300,7 +8304,7 @@
         <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8311,10 +8315,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8322,34 +8326,34 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8374,11 +8378,11 @@
         <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>40</v>
@@ -8396,45 +8400,45 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8442,34 +8446,34 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
@@ -8518,45 +8522,45 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8573,25 +8577,25 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -8640,31 +8644,31 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -8675,10 +8679,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8692,28 +8696,28 @@
         <v>38</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -8762,7 +8766,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8774,33 +8778,33 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8811,7 +8815,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -8823,13 +8827,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8880,13 +8884,13 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>40</v>
@@ -8895,7 +8899,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -8915,14 +8919,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8941,16 +8945,16 @@
         <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8988,19 +8992,19 @@
         <v>40</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -9012,10 +9016,10 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -9035,10 +9039,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9049,31 +9053,31 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
@@ -9086,7 +9090,7 @@
         <v>40</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>40</v>
@@ -9098,13 +9102,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9122,22 +9126,22 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -9146,7 +9150,7 @@
         <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
@@ -9157,10 +9161,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9171,7 +9175,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -9180,19 +9184,19 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9206,7 +9210,7 @@
         <v>40</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>40</v>
@@ -9218,13 +9222,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -9242,22 +9246,22 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -9266,7 +9270,7 @@
         <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9277,10 +9281,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9291,7 +9295,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -9300,22 +9304,22 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -9328,7 +9332,7 @@
         <v>40</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>40</v>
@@ -9364,22 +9368,22 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -9388,7 +9392,7 @@
         <v>40</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
@@ -9399,10 +9403,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9416,22 +9420,22 @@
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9446,7 +9450,7 @@
         <v>40</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>40</v>
@@ -9482,7 +9486,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9494,10 +9498,10 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -9506,7 +9510,7 @@
         <v>40</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
@@ -9517,39 +9521,39 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9564,7 +9568,7 @@
         <v>40</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>40</v>
@@ -9600,22 +9604,22 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -9624,7 +9628,7 @@
         <v>40</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -9635,21 +9639,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -9658,19 +9662,19 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9684,7 +9688,7 @@
         <v>40</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>40</v>
@@ -9720,22 +9724,22 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -9744,7 +9748,7 @@
         <v>40</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -9755,39 +9759,39 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9814,13 +9818,13 @@
         <v>40</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>40</v>
@@ -9838,22 +9842,22 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -9862,7 +9866,7 @@
         <v>40</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -9873,39 +9877,39 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9920,7 +9924,7 @@
         <v>40</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>40</v>
@@ -9956,22 +9960,22 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -9980,7 +9984,7 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
@@ -9991,10 +9995,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10005,7 +10009,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -10014,19 +10018,19 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10076,22 +10080,22 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -10100,7 +10104,7 @@
         <v>40</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10111,10 +10115,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10125,29 +10129,29 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>40</v>
@@ -10160,7 +10164,7 @@
         <v>40</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>40</v>
@@ -10196,22 +10200,22 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -10220,7 +10224,7 @@
         <v>40</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10231,10 +10235,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10257,17 +10261,17 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
@@ -10292,13 +10296,13 @@
         <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10316,45 +10320,45 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10377,19 +10381,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10438,31 +10442,31 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -10473,10 +10477,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10499,19 +10503,19 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -10560,7 +10564,7 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10572,19 +10576,19 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -10595,10 +10599,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10621,19 +10625,19 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>40</v>
@@ -10682,7 +10686,7 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10694,13 +10698,13 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -10712,15 +10716,15 @@
         <v>40</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10731,7 +10735,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
@@ -10743,13 +10747,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10800,13 +10804,13 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>40</v>
@@ -10815,7 +10819,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -10835,14 +10839,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10861,16 +10865,16 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10920,7 +10924,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -10932,10 +10936,10 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -10955,14 +10959,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10975,25 +10979,25 @@
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -11042,7 +11046,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11054,10 +11058,10 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -11077,10 +11081,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11103,17 +11107,17 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11138,13 +11142,13 @@
         <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -11162,7 +11166,7 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11174,19 +11178,19 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11197,10 +11201,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11211,7 +11215,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -11223,17 +11227,17 @@
         <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
@@ -11282,31 +11286,31 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11317,10 +11321,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11343,19 +11347,19 @@
         <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11404,7 +11408,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11416,19 +11420,19 @@
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -11439,10 +11443,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11453,7 +11457,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -11465,17 +11469,17 @@
         <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -11524,31 +11528,31 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
@@ -11559,10 +11563,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11573,7 +11577,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
@@ -11585,17 +11589,17 @@
         <v>40</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11620,13 +11624,13 @@
         <v>40</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -11644,31 +11648,31 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
@@ -11679,10 +11683,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11693,7 +11697,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>40</v>
@@ -11705,17 +11709,17 @@
         <v>40</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11764,31 +11768,31 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -11799,10 +11803,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11813,7 +11817,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -11825,13 +11829,13 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11882,25 +11886,25 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -11917,10 +11921,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11943,19 +11947,19 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -12004,7 +12008,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -12016,13 +12020,13 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -12039,10 +12043,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12053,7 +12057,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
@@ -12065,13 +12069,13 @@
         <v>40</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12122,13 +12126,13 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>40</v>
@@ -12137,7 +12141,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -12157,14 +12161,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12183,16 +12187,16 @@
         <v>40</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12242,7 +12246,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12254,10 +12258,10 @@
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -12277,14 +12281,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12297,25 +12301,25 @@
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
@@ -12364,7 +12368,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -12376,10 +12380,10 @@
         <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -12399,10 +12403,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12410,13 +12414,13 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>40</v>
@@ -12425,19 +12429,19 @@
         <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
@@ -12462,11 +12466,11 @@
         <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -12484,31 +12488,31 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
@@ -12519,10 +12523,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12533,7 +12537,7 @@
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>40</v>
@@ -12545,19 +12549,19 @@
         <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
@@ -12606,31 +12610,31 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>40</v>
@@ -12641,14 +12645,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12667,16 +12671,16 @@
         <v>40</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12726,7 +12730,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -12738,19 +12742,19 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
@@ -12761,10 +12765,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12784,22 +12788,22 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>40</v>
@@ -12848,25 +12852,25 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -12878,15 +12882,15 @@
         <v>40</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12903,25 +12907,25 @@
         <v>40</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>40</v>
@@ -12970,7 +12974,7 @@
         <v>40</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -12982,13 +12986,13 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
@@ -13005,10 +13009,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13019,7 +13023,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>40</v>
@@ -13031,13 +13035,13 @@
         <v>40</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13088,13 +13092,13 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>40</v>
@@ -13103,7 +13107,7 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>40</v>
@@ -13123,14 +13127,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13149,16 +13153,16 @@
         <v>40</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13208,7 +13212,7 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
@@ -13220,10 +13224,10 @@
         <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>40</v>
@@ -13243,14 +13247,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13263,25 +13267,25 @@
         <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>40</v>
@@ -13330,7 +13334,7 @@
         <v>40</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
@@ -13342,10 +13346,10 @@
         <v>40</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>40</v>
@@ -13365,10 +13369,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13376,10 +13380,10 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>40</v>
@@ -13388,19 +13392,19 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13450,31 +13454,31 @@
         <v>40</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>40</v>
@@ -13485,10 +13489,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13496,10 +13500,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>40</v>
@@ -13508,16 +13512,16 @@
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13544,13 +13548,13 @@
         <v>40</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>40</v>
@@ -13568,25 +13572,25 @@
         <v>40</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -107,7 +107,7 @@
   - Icn 
 - set .meta.profile
 - Would be even better if we could use a common Patient registry. 
-NOT USING Mapping to [VIA PatientTO](StructureDefinition-VA.MHV.PHR.patient-mappings.html#mappings-for-via-to-mhv-phr-patientto)</t>
+NOT USING Mapping to [VIA PatientTO](StructureDefinition-VA.MHV.PHR.patient-mappings.html#mappings-for-via-to-mhv-fhir-phr-patientto)</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,12 +97,17 @@
 - `gender`
 - `birthDate`
 - `active` = true
-mapping concerns - JIRA
+mapping concerns - TODO
 - The Identifier for the ICN is still being discussed
 - identifer.use is not being populated so can't use slicing
 - name seems to only populate first and last, but puts them both in given
 - populating identifier with GetPatientId() - the MHV patientId (jwt subjectId)
-  - **the system value should not be the generic VA oid**, but rather some URI identifying MHV as this is where these id values are unique.
+  - TODO: **the system value should not be the generic VA oid**, but rather some URI identifying MHV as this is where these id values are unique.
+  - TODO: John is requesting an assigned OID for the MHV patientId system
+    - Historically `200MH` was used as an assigning authority `USVHA` identifier type (e.g., H7 v2 Identifier)
+  - FHIR database will likely need to have the current Patient resources updated. Updating the FHIR database first will continue to work with current client.
+  - **MHV-54036**
+  - TODO: client will need to change to be specific to the new system value - https://github.com/department-of-veterans-affairs/vets-api/blob/f2733b21112f94c90dae618f0420d712f01cdf49/lib/medical_records/client.rb#L75
 - eVault also has, but are not being used in the FHIR Patient
   - MiddleName
   - Ssn

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7003,7 +7003,7 @@
         <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>91</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
